--- a/biology/Médecine/Rameau_musculaire_du_nerf_radial/Rameau_musculaire_du_nerf_radial.xlsx
+++ b/biology/Médecine/Rameau_musculaire_du_nerf_radial/Rameau_musculaire_du_nerf_radial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Les rameaux musculaires du nerf radial sont les branches collatérales motrices du nerf radial.
@@ -512,7 +524,9 @@
           <t>Rameau médial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau musculaire médial innerve le chef médial du muscle triceps brachial. Il se trouve près du nerf ulnaire jusqu'au tiers inférieur du bras.
 </t>
@@ -543,7 +557,9 @@
           <t>Rameau postérieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau musculaire postérieur naît du nerf radial dans le sillon entre le muscle triceps brachial et l'humérus.
 Il se divise en filaments qui alimentent les chefs médial et latéral du muscle triceps brachial et le muscle anconé.
@@ -576,7 +592,9 @@
           <t>Rameaux latéraux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux musculaires latéraux innervent le muscle brachio-radial, le muscle long extenseur radial du carpe et la partie latérale du muscle brachial.
 </t>
